--- a/data/trans_orig/P43B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43B-Provincia-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>15109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8774</v>
+        <v>8813</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24862</v>
+        <v>25659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1052910378778986</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06114276383690688</v>
+        <v>0.06141416080985323</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1732549836204959</v>
+        <v>0.1788127131453003</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>128388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118635</v>
+        <v>117838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134723</v>
+        <v>134684</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8947089621221014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8267450163795039</v>
+        <v>0.8211872868546994</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9388572361630928</v>
+        <v>0.9385858391901467</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>28458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18233</v>
+        <v>18281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40537</v>
+        <v>40289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1342463915315382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08601238839228996</v>
+        <v>0.08623957141576473</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1912278046243084</v>
+        <v>0.1900585555984815</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>183523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>171444</v>
+        <v>171692</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>193748</v>
+        <v>193700</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8657536084684618</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8087721953756911</v>
+        <v>0.8099414444015184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.91398761160771</v>
+        <v>0.9137604285842352</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>23531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14588</v>
+        <v>14559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34805</v>
+        <v>34386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1541068837458079</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09553765779928768</v>
+        <v>0.09535034186795925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2279376043304143</v>
+        <v>0.2251955158953537</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>129163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117889</v>
+        <v>118308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138106</v>
+        <v>138135</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8458931162541921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7720623956695852</v>
+        <v>0.7748044841046464</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9044623422007123</v>
+        <v>0.904649658132041</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>38114</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28294</v>
+        <v>27441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51642</v>
+        <v>49766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.20360988956365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1511474246241092</v>
+        <v>0.1465908146175022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.275876278671721</v>
+        <v>0.2658557837725429</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>149078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135550</v>
+        <v>137426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158898</v>
+        <v>159751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.79639011043635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7241237213282791</v>
+        <v>0.7341442162274572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8488525753758909</v>
+        <v>0.8534091853824979</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>9297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4492</v>
+        <v>4461</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16842</v>
+        <v>15639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08949173852776926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04323502212093829</v>
+        <v>0.04294120728741584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.162114161255036</v>
+        <v>0.1505393295526437</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>94591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87046</v>
+        <v>88249</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99396</v>
+        <v>99427</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9105082614722307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8378858387449633</v>
+        <v>0.849460670447356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9567649778790616</v>
+        <v>0.9570587927125841</v>
       </c>
     </row>
     <row r="18">
@@ -1078,19 +1078,19 @@
         <v>8708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3842</v>
+        <v>3081</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18234</v>
+        <v>18087</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06450317113875166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02846197098191723</v>
+        <v>0.02282502314436515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1350695637051892</v>
+        <v>0.1339853744103537</v>
       </c>
     </row>
     <row r="20">
@@ -1107,19 +1107,19 @@
         <v>126288</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116762</v>
+        <v>116909</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131154</v>
+        <v>131915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9354968288612483</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8649304362948107</v>
+        <v>0.8660146255896447</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9715380290180827</v>
+        <v>0.9771749768556347</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>49771</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36112</v>
+        <v>35573</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64165</v>
+        <v>63058</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1435946519962651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1041859513137941</v>
+        <v>0.1026321136390468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1851201300682761</v>
+        <v>0.181927461594575</v>
       </c>
     </row>
     <row r="23">
@@ -1198,19 +1198,19 @@
         <v>296840</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>282446</v>
+        <v>283553</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>310499</v>
+        <v>311038</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8564053480037349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.814879869931724</v>
+        <v>0.8180725384054252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8958140486862058</v>
+        <v>0.8973678863609533</v>
       </c>
     </row>
     <row r="24">
@@ -1260,19 +1260,19 @@
         <v>61047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47941</v>
+        <v>48036</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76944</v>
+        <v>77514</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1720836801393279</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1351402572400863</v>
+        <v>0.1354058537652885</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2168935512827951</v>
+        <v>0.2185004764751852</v>
       </c>
     </row>
     <row r="26">
@@ -1289,19 +1289,19 @@
         <v>293706</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>277809</v>
+        <v>277239</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>306812</v>
+        <v>306717</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.827916319860672</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7831064487172048</v>
+        <v>0.7814995235248148</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8648597427599136</v>
+        <v>0.8645941462347114</v>
       </c>
     </row>
     <row r="27">
@@ -1351,19 +1351,19 @@
         <v>234035</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>203096</v>
+        <v>206405</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>262159</v>
+        <v>264379</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.143087388190311</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1241712633064915</v>
+        <v>0.1261947217185073</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1602819018684755</v>
+        <v>0.1616391906634115</v>
       </c>
     </row>
     <row r="29">
@@ -1380,19 +1380,19 @@
         <v>1401576</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1373452</v>
+        <v>1371232</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1432515</v>
+        <v>1429206</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.856912611809689</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8397180981315246</v>
+        <v>0.8383608093365885</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8758287366935086</v>
+        <v>0.8738052782814929</v>
       </c>
     </row>
     <row r="30">
@@ -1564,19 +1564,19 @@
         <v>25719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17477</v>
+        <v>17241</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36317</v>
+        <v>35539</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1823672399043433</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1239301937588104</v>
+        <v>0.1222543827137022</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2575178402349594</v>
+        <v>0.2520023379827758</v>
       </c>
     </row>
     <row r="5">
@@ -1593,19 +1593,19 @@
         <v>115307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104709</v>
+        <v>105487</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123549</v>
+        <v>123785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8176327600956568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7424821597650405</v>
+        <v>0.7479976620172242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8760698062411894</v>
+        <v>0.8777456172862977</v>
       </c>
     </row>
     <row r="6">
@@ -1655,19 +1655,19 @@
         <v>19579</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12512</v>
+        <v>11534</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29963</v>
+        <v>29124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07654882687764851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04891952810221045</v>
+        <v>0.04509492054955932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.117151456521821</v>
+        <v>0.113871102097429</v>
       </c>
     </row>
     <row r="8">
@@ -1684,19 +1684,19 @@
         <v>236187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>225803</v>
+        <v>226642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>243254</v>
+        <v>244232</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9234511731223515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.882848543478179</v>
+        <v>0.8861288979025709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9510804718977895</v>
+        <v>0.9549050794504407</v>
       </c>
     </row>
     <row r="9">
@@ -1746,19 +1746,19 @@
         <v>13720</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7590</v>
+        <v>7978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23081</v>
+        <v>22034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07550570360350535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04176867495591641</v>
+        <v>0.04390491250973918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1270210084442008</v>
+        <v>0.1212605619561002</v>
       </c>
     </row>
     <row r="11">
@@ -1775,19 +1775,19 @@
         <v>167987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>158626</v>
+        <v>159673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174117</v>
+        <v>173729</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9244942963964946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8729789915557989</v>
+        <v>0.8787394380438998</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9582313250440837</v>
+        <v>0.9560950874902608</v>
       </c>
     </row>
     <row r="12">
@@ -1837,19 +1837,19 @@
         <v>23368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14313</v>
+        <v>15143</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34875</v>
+        <v>35111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1156670536220498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0708472437935994</v>
+        <v>0.07495363153482472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1726279812124978</v>
+        <v>0.1737922079346855</v>
       </c>
     </row>
     <row r="14">
@@ -1866,19 +1866,19 @@
         <v>178658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167151</v>
+        <v>166915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187713</v>
+        <v>186883</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8843329463779501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8273720187875023</v>
+        <v>0.8262077920653145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9291527562064006</v>
+        <v>0.9250463684651743</v>
       </c>
     </row>
     <row r="15">
@@ -1928,19 +1928,19 @@
         <v>9451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4844</v>
+        <v>4639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17125</v>
+        <v>17728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08741508099302581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04480380492120203</v>
+        <v>0.04290484975108741</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1583959306296066</v>
+        <v>0.1639763965983499</v>
       </c>
     </row>
     <row r="17">
@@ -1957,19 +1957,19 @@
         <v>98665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90991</v>
+        <v>90388</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>103272</v>
+        <v>103477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9125849190069742</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8416040693703939</v>
+        <v>0.8360236034016499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.955196195078798</v>
+        <v>0.9570951502489126</v>
       </c>
     </row>
     <row r="18">
@@ -2019,19 +2019,19 @@
         <v>13522</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7917</v>
+        <v>7652</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22532</v>
+        <v>22732</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1007175828522486</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05896617613840154</v>
+        <v>0.05699580092073317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1678272898936632</v>
+        <v>0.169316135526907</v>
       </c>
     </row>
     <row r="20">
@@ -2048,19 +2048,19 @@
         <v>120734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>111724</v>
+        <v>111524</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126339</v>
+        <v>126604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8992824171477515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8321727101063368</v>
+        <v>0.8306838644730932</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9410338238615981</v>
+        <v>0.9430041990792677</v>
       </c>
     </row>
     <row r="21">
@@ -2110,19 +2110,19 @@
         <v>43060</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32024</v>
+        <v>31226</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56633</v>
+        <v>56245</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1508063150718008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.112155164232863</v>
+        <v>0.1093625733184519</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1983450253347431</v>
+        <v>0.1969847297602577</v>
       </c>
     </row>
     <row r="23">
@@ -2139,19 +2139,19 @@
         <v>242469</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>228896</v>
+        <v>229284</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253505</v>
+        <v>254303</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8491936849281992</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8016549746652568</v>
+        <v>0.8030152702397423</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.887844835767137</v>
+        <v>0.8906374266815482</v>
       </c>
     </row>
     <row r="24">
@@ -2201,19 +2201,19 @@
         <v>61011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46791</v>
+        <v>46905</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77518</v>
+        <v>77013</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1594712569517287</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1223018471085401</v>
+        <v>0.1226008802960304</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2026186240088963</v>
+        <v>0.2012971975790618</v>
       </c>
     </row>
     <row r="26">
@@ -2230,19 +2230,19 @@
         <v>321572</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>305065</v>
+        <v>305570</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>335792</v>
+        <v>335678</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8405287430482713</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7973813759911041</v>
+        <v>0.7987028024209382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8776981528914599</v>
+        <v>0.8773991197039697</v>
       </c>
     </row>
     <row r="27">
@@ -2292,19 +2292,19 @@
         <v>209428</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>181962</v>
+        <v>183116</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>238780</v>
+        <v>239674</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1238481036440404</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1076057646784511</v>
+        <v>0.108287703977103</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1412058354247437</v>
+        <v>0.1417342801411673</v>
       </c>
     </row>
     <row r="29">
@@ -2321,19 +2321,19 @@
         <v>1481582</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1452230</v>
+        <v>1451336</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1509048</v>
+        <v>1507894</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8761518963559596</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8587941645752558</v>
+        <v>0.8582657198588326</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8923942353215487</v>
+        <v>0.891712296022897</v>
       </c>
     </row>
     <row r="30">
@@ -2505,19 +2505,19 @@
         <v>17977</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13119</v>
+        <v>13181</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24063</v>
+        <v>23893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1513773092016258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1104707210906552</v>
+        <v>0.1109910447236783</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2026245044287568</v>
+        <v>0.2011971319906093</v>
       </c>
     </row>
     <row r="5">
@@ -2534,19 +2534,19 @@
         <v>100778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94692</v>
+        <v>94862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105636</v>
+        <v>105574</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.848622690798374</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7973754955712432</v>
+        <v>0.7988028680093907</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8895292789093449</v>
+        <v>0.8890089552763216</v>
       </c>
     </row>
     <row r="6">
@@ -2596,19 +2596,19 @@
         <v>33319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25776</v>
+        <v>25336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43059</v>
+        <v>42707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1447827210840862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1120076495287025</v>
+        <v>0.1100951668548252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1871095790544753</v>
+        <v>0.1855802531975493</v>
       </c>
     </row>
     <row r="8">
@@ -2625,19 +2625,19 @@
         <v>196809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187069</v>
+        <v>187421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>204352</v>
+        <v>204792</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8552172789159139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8128904209455247</v>
+        <v>0.8144197468024506</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8879923504712977</v>
+        <v>0.8899048331451742</v>
       </c>
     </row>
     <row r="9">
@@ -2687,19 +2687,19 @@
         <v>13056</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7853</v>
+        <v>8340</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19347</v>
+        <v>19016</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09470845790205805</v>
+        <v>0.09470845790205804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05696504941848405</v>
+        <v>0.06049784702779339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1403422933867381</v>
+        <v>0.1379385030922557</v>
       </c>
     </row>
     <row r="11">
@@ -2716,19 +2716,19 @@
         <v>124802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>118511</v>
+        <v>118842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130005</v>
+        <v>129518</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9052915420979418</v>
+        <v>0.9052915420979417</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8596577066132617</v>
+        <v>0.8620614969077443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9430349505815159</v>
+        <v>0.9395021529722066</v>
       </c>
     </row>
     <row r="12">
@@ -2778,19 +2778,19 @@
         <v>38625</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29986</v>
+        <v>30064</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47126</v>
+        <v>47257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2316726560098357</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.179855508793073</v>
+        <v>0.1803228224874726</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2826634151293159</v>
+        <v>0.2834496308389187</v>
       </c>
     </row>
     <row r="14">
@@ -2807,19 +2807,19 @@
         <v>128097</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119596</v>
+        <v>119465</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136736</v>
+        <v>136658</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7683273439901643</v>
+        <v>0.7683273439901646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7173365848706841</v>
+        <v>0.7165503691610811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.820144491206927</v>
+        <v>0.8196771775125267</v>
       </c>
     </row>
     <row r="15">
@@ -2869,19 +2869,19 @@
         <v>15403</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11187</v>
+        <v>11000</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21360</v>
+        <v>20643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1290176379709404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09370825000610405</v>
+        <v>0.09213469590740039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1789189875124064</v>
+        <v>0.1729109710819349</v>
       </c>
     </row>
     <row r="17">
@@ -2898,19 +2898,19 @@
         <v>103982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98025</v>
+        <v>98742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108198</v>
+        <v>108385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8709823620290597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8210810124875935</v>
+        <v>0.827089028918065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9062917499938959</v>
+        <v>0.9078653040925995</v>
       </c>
     </row>
     <row r="18">
@@ -2960,19 +2960,19 @@
         <v>11414</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7077</v>
+        <v>7364</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17275</v>
+        <v>16822</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09896507040600139</v>
+        <v>0.0989650704060014</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06136781387988894</v>
+        <v>0.06385643283052746</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1497904886881397</v>
+        <v>0.1458593338436779</v>
       </c>
     </row>
     <row r="20">
@@ -2989,19 +2989,19 @@
         <v>103915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98054</v>
+        <v>98507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108252</v>
+        <v>107965</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9010349295939987</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8502095113118602</v>
+        <v>0.8541406661563223</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.938632186120111</v>
+        <v>0.9361435671694726</v>
       </c>
     </row>
     <row r="21">
@@ -3051,19 +3051,19 @@
         <v>112355</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98311</v>
+        <v>97174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127977</v>
+        <v>126150</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3425245256414481</v>
+        <v>0.342524525641448</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2997096659478367</v>
+        <v>0.2962455471576023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3901514713193271</v>
+        <v>0.3845791280793446</v>
       </c>
     </row>
     <row r="23">
@@ -3080,19 +3080,19 @@
         <v>215665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>200043</v>
+        <v>201870</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>229709</v>
+        <v>230846</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6574754743585519</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6098485286806727</v>
+        <v>0.6154208719206554</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7002903340521633</v>
+        <v>0.7037544528423976</v>
       </c>
     </row>
     <row r="24">
@@ -3142,19 +3142,19 @@
         <v>28177</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19905</v>
+        <v>20157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37580</v>
+        <v>38751</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1130580533372351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0798661449875173</v>
+        <v>0.0808800748614829</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1507892706738128</v>
+        <v>0.1554872168018933</v>
       </c>
     </row>
     <row r="26">
@@ -3171,19 +3171,19 @@
         <v>221048</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>211645</v>
+        <v>210474</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>229320</v>
+        <v>229068</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8869419466627648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8492107293261872</v>
+        <v>0.8445127831981076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9201338550124828</v>
+        <v>0.9191199251385173</v>
       </c>
     </row>
     <row r="27">
@@ -3233,19 +3233,19 @@
         <v>270325</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>245082</v>
+        <v>249605</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>294259</v>
+        <v>296448</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1844688818003775</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1672430826070092</v>
+        <v>0.1703294726708511</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2008015802258782</v>
+        <v>0.2022952340407483</v>
       </c>
     </row>
     <row r="29">
@@ -3262,19 +3262,19 @@
         <v>1195097</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1171163</v>
+        <v>1168974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1220340</v>
+        <v>1215817</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8155311181996225</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7991984197741219</v>
+        <v>0.7977047659592513</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.832756917392991</v>
+        <v>0.8296705273291487</v>
       </c>
     </row>
     <row r="30">
